--- a/output/StructureDefinition-ProgramPractitioner.xlsx
+++ b/output/StructureDefinition-ProgramPractitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-24T14:45:54-05:00</t>
+    <t>2024-11-24T20:16:23-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
